--- a/Peaks_Year.xlsx
+++ b/Peaks_Year.xlsx
@@ -438,7 +438,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>14.8757486813</v>
+        <v>16.3572013325</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -446,7 +446,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>17.056</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -454,7 +454,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>15.976</v>
       </c>
     </row>
     <row r="7" spans="1:3">

--- a/Peaks_Year.xlsx
+++ b/Peaks_Year.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
-    <t>Peak Loads for 2023 (Mthembanji)</t>
+    <t>Peak Loads for 2025 (Mthembanji)</t>
   </si>
   <si>
     <t>Month</t>
@@ -430,7 +430,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>19.7321938897</v>
+        <v>28.3032575571</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -438,7 +438,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>16.3572013325</v>
+        <v>26.2917684729</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -446,7 +446,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>17.056</v>
+        <v>26.9020471434</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -454,7 +454,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>15.976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3">
